--- a/code/experiment/shape_registration/error/error_table.xlsx
+++ b/code/experiment/shape_registration/error/error_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Github/sliced_opt/code/experiment/shape_registration/error/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6554B48A-7BE3-2844-AC23-DAB248F1BDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7868E420-D4C8-024B-B1A6-3F4BBBD74DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="4040" windowWidth="28040" windowHeight="17440" xr2:uid="{21BB7973-78D1-A54D-8CA2-1A164FF87F1E}"/>
+    <workbookView xWindow="22160" yWindow="15520" windowWidth="29920" windowHeight="16980" xr2:uid="{21BB7973-78D1-A54D-8CA2-1A164FF87F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,17 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>sopt</t>
   </si>
   <si>
-    <t>Icp-Uzemata</t>
-  </si>
-  <si>
-    <t>0.78 (0.71)</t>
-  </si>
-  <si>
     <t>method\experiment</t>
   </si>
   <si>
@@ -61,23 +55,71 @@
     <t>10k 7% noise</t>
   </si>
   <si>
-    <t>60.4 (931.5)</t>
-  </si>
-  <si>
-    <t>19.4 (214)</t>
-  </si>
-  <si>
-    <t>22.1(129.6)</t>
-  </si>
-  <si>
     <t>error (Frobenius Norm)</t>
+  </si>
+  <si>
+    <t>Icp-Umeyama</t>
+  </si>
+  <si>
+    <t>9k 5% noise</t>
+  </si>
+  <si>
+    <t>9k 7% noise</t>
+  </si>
+  <si>
+    <t>3.689(0.631)</t>
+  </si>
+  <si>
+    <t>1.65(1.13)</t>
+  </si>
+  <si>
+    <t>1.27(0.12)</t>
+  </si>
+  <si>
+    <t>1.10(1.59)</t>
+  </si>
+  <si>
+    <t>3.72(0.53)</t>
+  </si>
+  <si>
+    <t>1.40(0.15)</t>
+  </si>
+  <si>
+    <t>3.6(0.11)</t>
+  </si>
+  <si>
+    <t>3.72(0.52)</t>
+  </si>
+  <si>
+    <t>2.04(2.28)</t>
+  </si>
+  <si>
+    <t>1.53(1.50)</t>
+  </si>
+  <si>
+    <t>1.42(0.13)</t>
+  </si>
+  <si>
+    <t>0.33(0.03)</t>
+  </si>
+  <si>
+    <t>3.923(0.32)</t>
+  </si>
+  <si>
+    <t>0.20(0.09)</t>
+  </si>
+  <si>
+    <t>0.01(0.001)</t>
+  </si>
+  <si>
+    <t>0.02(0.002)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,13 +127,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,8 +161,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,65 +478,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B1F133-FBD6-1E48-B919-A4630736CADA}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="E6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
